--- a/biology/Zoologie/Hexurella/Hexurella.xlsx
+++ b/biology/Zoologie/Hexurella/Hexurella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hexurella  est un genre d'araignées mygalomorphes, le seul de la famille des Hexurellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hexurella  est un genre d'araignées mygalomorphes, le seul de la famille des Hexurellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis en Californie et en Arizona et au Mexique en Basse-Californie et au Sonora[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis en Californie et en Arizona et au Mexique en Basse-Californie et au Sonora,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille n'est pas connue à l'état fossile[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille n'est pas connue à l'état fossile.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre mesurent de 2,5 à 5 mm[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre mesurent de 2,5 à 5 mm.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 12/08/2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 12/08/2023) :
 Hexurella apachea Gertsch &amp; Platnick, 1979
 Hexurella encina Gertsch &amp; Platnick, 1979
 Hexurella ephedra Monjaraz-Ruedas, Mendez &amp; Hedin, 2023
@@ -642,10 +662,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Gertsch et Platnick en 1979 dans les Mecicobothriidae. Il est placé dans les Hexurellidae par Hedin et Bond en 2019[5].
-Cette famille rassemble huit espèces dans un genre[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Gertsch et Platnick en 1979 dans les Mecicobothriidae. Il est placé dans les Hexurellidae par Hedin et Bond en 2019.
+Cette famille rassemble huit espèces dans un genre.
 </t>
         </is>
       </c>
@@ -674,7 +696,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Gertsch &amp; Platnick, 1979 : « A revision of the spider family Mecicobothriidae (Araneae, Mygalomorphae). » American Museum Novitates, no 2687, p. 1-32 (texte intégral).
 Hedin, Derkarabetian, Alfaro, Ramírez &amp; Bond, 2019 : « Phylogenomic analysis and revised classification of atypoid mygalomorph spiders (Araneae, Mygalomorphae), with notes on arachnid ultraconserved element loci. » PeerJ, vol. 7, no e6864, p. 1-24.</t>
